--- a/RUDN/Importance/Varible_class_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_class_in_Melanesia.xlsx
@@ -14,12 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.642857142857143</v>
+        <v>0.3034482896327972</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,7 +440,111 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3571428571428572</v>
+        <v>0.2896551787853241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.275862067937851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0275862067937851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.02068965509533882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.01379310339689255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.01379310339689255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.006896551698446274</v>
       </c>
     </row>
   </sheetData>
